--- a/Mifos Automation Excels/Client/4633-EI-FL-DL-DISB-01JAN2015-FC-15JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4633-EI-FL-DL-DISB-01JAN2015-FC-15JAN2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Submitbutton</t>
   </si>
   <si>
-    <t>4633-EI-FL-DL-DISB-01JAN2015-FC-15JAN2015</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>4633-EI-FL-DL-DISB-01JAN2015-FC-15JAN2015-1st</t>
   </si>
 </sst>
 </file>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,40 +725,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -768,13 +768,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7">
         <v>42019</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="8">
         <v>10045.16</v>
@@ -802,13 +802,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7">
         <v>42005</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="9">
         <v>10000</v>
